--- a/data/raw/sample_run_2019-03-14_CORRECTED.xlsx
+++ b/data/raw/sample_run_2019-03-14_CORRECTED.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\204.46.92.163\Public\Astoria Pacific nutrient runs\Steven Shivers Cyano\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="L:\Public\Astoria Pacific nutrient runs\Steven Shivers Cyano\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A755578C-762B-459C-9EFC-3221A947C5BA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF5AC79-10A1-40FA-852B-13D4E68FBADB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="10545" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Worksheet 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1236" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="243">
   <si>
     <t>Run Name: sample_run_2019-03-14</t>
   </si>
@@ -750,6 +750,12 @@
   </si>
   <si>
     <t>20170816 Y3</t>
+  </si>
+  <si>
+    <t>duplicate N average (uM)</t>
+  </si>
+  <si>
+    <t>duplicate P average (uM)</t>
   </si>
 </sst>
 </file>
@@ -761,7 +767,7 @@
     <numFmt numFmtId="165" formatCode="0.0000;\-0.0000"/>
     <numFmt numFmtId="166" formatCode="0.000;\-0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -780,6 +786,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -864,9 +877,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -880,9 +890,6 @@
     <xf numFmtId="166" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
     <xf numFmtId="166" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
@@ -891,6 +898,12 @@
     </xf>
     <xf numFmtId="166" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1232,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B102" workbookViewId="0">
-      <selection activeCell="L108" sqref="L108"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1248,53 +1261,59 @@
     <col min="16" max="16384" width="11.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+    <row r="5" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9" t="s">
+      <c r="B5" s="17"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9" t="s">
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="10" t="s">
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="9" t="s">
         <v>185</v>
       </c>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="N5" s="10" t="s">
+      <c r="N5" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="O5" s="10" t="s">
+      <c r="O5" s="9" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P5" s="18" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q5" s="18" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -1329,7 +1348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>1</v>
       </c>
@@ -1359,10 +1378,10 @@
         <v>9.8000000000000004E-2</v>
       </c>
       <c r="K7" s="7">
-        <v>98.680999999999997</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>101.78100000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2</v>
       </c>
@@ -1389,13 +1408,13 @@
         <v>1E-3</v>
       </c>
       <c r="J8" s="6">
-        <v>1E-3</v>
+        <v>0</v>
       </c>
       <c r="K8" s="7">
-        <v>0.83299999999999996</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>3</v>
       </c>
@@ -1419,16 +1438,16 @@
         <v>190.13499999999999</v>
       </c>
       <c r="I9" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J9" s="6">
         <v>0</v>
       </c>
       <c r="K9" s="7">
-        <v>0.17799999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.29099999999999998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>4</v>
       </c>
@@ -1452,16 +1471,16 @@
         <v>14.151</v>
       </c>
       <c r="I10" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J10" s="6">
         <v>0</v>
       </c>
       <c r="K10" s="7">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>5</v>
       </c>
@@ -1485,16 +1504,16 @@
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="I11" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J11" s="6">
         <v>0</v>
       </c>
       <c r="K11" s="7">
-        <v>0.22500000000000001</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>6</v>
       </c>
@@ -1518,16 +1537,16 @@
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="I12" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J12" s="6">
         <v>0</v>
       </c>
       <c r="K12" s="7">
-        <v>0.108</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.19600000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>7</v>
       </c>
@@ -1551,16 +1570,16 @@
         <v>4.476</v>
       </c>
       <c r="I13" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J13" s="6">
         <v>0</v>
       </c>
       <c r="K13" s="7">
-        <v>3.5999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.17899999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>8</v>
       </c>
@@ -1584,16 +1603,16 @@
         <v>25.126000000000001</v>
       </c>
       <c r="I14" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J14" s="6">
         <v>0</v>
       </c>
       <c r="K14" s="7">
-        <v>7.5999999999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>9</v>
       </c>
@@ -1617,16 +1636,16 @@
         <v>80.75</v>
       </c>
       <c r="I15" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J15" s="6">
         <v>0</v>
       </c>
       <c r="K15" s="7">
-        <v>-1E-3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+        <v>0.122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>10</v>
       </c>
@@ -1650,13 +1669,13 @@
         <v>159.62200000000001</v>
       </c>
       <c r="I16" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="J16" s="6">
         <v>0</v>
       </c>
       <c r="K16" s="7">
-        <v>4.0000000000000001E-3</v>
+        <v>0.151</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1689,7 +1708,7 @@
         <v>0</v>
       </c>
       <c r="K17" s="7">
-        <v>0.2</v>
+        <v>0.28299999999999997</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1722,7 +1741,7 @@
         <v>1E-3</v>
       </c>
       <c r="K18" s="7">
-        <v>1.46</v>
+        <v>1.2989999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1752,10 +1771,10 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="J19" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="K19" s="7">
-        <v>3.9449999999999998</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1788,7 +1807,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
       <c r="K20" s="7">
-        <v>8.0359999999999996</v>
+        <v>8.1020000000000003</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1823,13 +1842,13 @@
         <v>0</v>
       </c>
       <c r="K21" s="7">
-        <v>2.5000000000000001E-2</v>
-      </c>
-      <c r="L21" s="11">
+        <v>0.17899999999999999</v>
+      </c>
+      <c r="L21" s="10">
         <f>((100-H21)/100)*-100</f>
         <v>0.18000000000000682</v>
       </c>
-      <c r="M21" s="12"/>
+      <c r="M21" s="11"/>
     </row>
     <row r="22" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -1863,12 +1882,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K22" s="7">
-        <v>6.3490000000000002</v>
-      </c>
-      <c r="L22" s="12"/>
-      <c r="M22" s="11">
+        <v>6.3979999999999997</v>
+      </c>
+      <c r="L22" s="11"/>
+      <c r="M22" s="10">
         <f>((6.25-K22)/6.25)*-100</f>
-        <v>1.5840000000000032</v>
+        <v>2.367999999999995</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1898,10 +1917,10 @@
         <v>1E-3</v>
       </c>
       <c r="J23" s="6">
-        <v>0</v>
+        <v>-1E-3</v>
       </c>
       <c r="K23" s="7">
-        <v>-0.13500000000000001</v>
+        <v>-0.29599999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1934,7 +1953,7 @@
         <v>9.6000000000000002E-2</v>
       </c>
       <c r="K24" s="7">
-        <v>96.855999999999995</v>
+        <v>100.276</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -1961,13 +1980,13 @@
         <v>3.6549999999999998</v>
       </c>
       <c r="I25" s="6">
-        <v>4.0000000000000001E-3</v>
+        <v>2E-3</v>
       </c>
       <c r="J25" s="6">
-        <v>2E-3</v>
+        <v>0</v>
       </c>
       <c r="K25" s="7">
-        <v>2.722</v>
+        <v>0.73699999999999999</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2000,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2022,10 +2041,10 @@
       <c r="F27" s="6">
         <v>1.2E-2</v>
       </c>
-      <c r="G27" s="15">
+      <c r="G27" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="H27" s="7">
+      <c r="H27" s="14">
         <v>3.58</v>
       </c>
       <c r="I27" s="6">
@@ -2034,8 +2053,8 @@
       <c r="J27" s="6">
         <v>0</v>
       </c>
-      <c r="K27" s="16">
-        <v>0.56999999999999995</v>
+      <c r="K27" s="14">
+        <v>0.59499999999999997</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2057,10 +2076,10 @@
       <c r="F28" s="6">
         <v>0.10199999999999999</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="6">
         <v>9.8000000000000004E-2</v>
       </c>
-      <c r="H28" s="7">
+      <c r="H28" s="14">
         <v>42.945</v>
       </c>
       <c r="I28" s="6">
@@ -2069,8 +2088,8 @@
       <c r="J28" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K28" s="16">
-        <v>1.0589999999999999</v>
+      <c r="K28" s="14">
+        <v>1.101</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2092,10 +2111,10 @@
       <c r="F29" s="6">
         <v>9.1999999999999998E-2</v>
       </c>
-      <c r="G29" s="15">
+      <c r="G29" s="6">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H29" s="7">
+      <c r="H29" s="14">
         <v>38.581000000000003</v>
       </c>
       <c r="I29" s="6">
@@ -2104,8 +2123,8 @@
       <c r="J29" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K29" s="16">
-        <v>1.2869999999999999</v>
+      <c r="K29" s="14">
+        <v>1.3380000000000001</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2127,10 +2146,10 @@
       <c r="F30" s="6">
         <v>8.5999999999999993E-2</v>
       </c>
-      <c r="G30" s="15">
+      <c r="G30" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H30" s="7">
+      <c r="H30" s="14">
         <v>36.091999999999999</v>
       </c>
       <c r="I30" s="6">
@@ -2139,8 +2158,8 @@
       <c r="J30" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K30" s="16">
-        <v>1.0649999999999999</v>
+      <c r="K30" s="14">
+        <v>1.107</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2162,10 +2181,10 @@
       <c r="F31" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="G31" s="15">
+      <c r="G31" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H31" s="7">
+      <c r="H31" s="14">
         <v>28.312999999999999</v>
       </c>
       <c r="I31" s="6">
@@ -2174,8 +2193,8 @@
       <c r="J31" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K31" s="16">
-        <v>1.038</v>
+      <c r="K31" s="14">
+        <v>1.08</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2197,10 +2216,10 @@
       <c r="F32" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="G32" s="15">
+      <c r="G32" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H32" s="7">
+      <c r="H32" s="14">
         <v>26.864999999999998</v>
       </c>
       <c r="I32" s="6">
@@ -2209,8 +2228,8 @@
       <c r="J32" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K32" s="16">
-        <v>1.004</v>
+      <c r="K32" s="14">
+        <v>1.044</v>
       </c>
     </row>
     <row r="33" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2232,10 +2251,10 @@
       <c r="F33" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="G33" s="15">
+      <c r="G33" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H33" s="7">
+      <c r="H33" s="14">
         <v>28.497</v>
       </c>
       <c r="I33" s="6">
@@ -2244,8 +2263,8 @@
       <c r="J33" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K33" s="16">
-        <v>1.1619999999999999</v>
+      <c r="K33" s="14">
+        <v>1.208</v>
       </c>
       <c r="O33" s="5"/>
     </row>
@@ -2268,10 +2287,10 @@
       <c r="F34" s="6">
         <v>0.104</v>
       </c>
-      <c r="G34" s="15">
+      <c r="G34" s="6">
         <v>0.1</v>
       </c>
-      <c r="H34" s="7">
+      <c r="H34" s="14">
         <v>43.826000000000001</v>
       </c>
       <c r="I34" s="6">
@@ -2280,8 +2299,8 @@
       <c r="J34" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K34" s="16">
-        <v>1.5680000000000001</v>
+      <c r="K34" s="14">
+        <v>1.641</v>
       </c>
     </row>
     <row r="35" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2303,10 +2322,10 @@
       <c r="F35" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="G35" s="15">
+      <c r="G35" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H35" s="7">
+      <c r="H35" s="14">
         <v>34.746000000000002</v>
       </c>
       <c r="I35" s="6">
@@ -2315,8 +2334,8 @@
       <c r="J35" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K35" s="16">
-        <v>0.91900000000000004</v>
+      <c r="K35" s="14">
+        <v>0.95599999999999996</v>
       </c>
     </row>
     <row r="36" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2338,10 +2357,10 @@
       <c r="F36" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="G36" s="15">
+      <c r="G36" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="H36" s="7">
+      <c r="H36" s="14">
         <v>34.369</v>
       </c>
       <c r="I36" s="6">
@@ -2350,24 +2369,24 @@
       <c r="J36" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K36" s="16">
-        <v>0.89800000000000002</v>
-      </c>
-      <c r="N36" s="13">
+      <c r="K36" s="14">
+        <v>0.93400000000000005</v>
+      </c>
+      <c r="N36" s="12">
         <f>((H36-H39)/((H36+H39)/2))*100</f>
         <v>2.6981997257567465</v>
       </c>
-      <c r="O36" s="13">
+      <c r="O36" s="12">
         <f>((K36-K39)/((K36+K39)/2))*100</f>
-        <v>-2.7457440966501943</v>
-      </c>
-      <c r="P36" s="14">
+        <v>-2.9535864978902864</v>
+      </c>
+      <c r="P36" s="13">
         <f>AVERAGE(H36,H39)</f>
         <v>33.911500000000004</v>
       </c>
-      <c r="Q36" s="14">
+      <c r="Q36" s="13">
         <f>AVERAGE(K36,K39)</f>
-        <v>0.91050000000000009</v>
+        <v>0.94799999999999995</v>
       </c>
     </row>
     <row r="37" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2400,7 +2419,7 @@
         <v>0</v>
       </c>
       <c r="K37" s="7">
-        <v>0.23</v>
+        <v>0.24299999999999999</v>
       </c>
     </row>
     <row r="38" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2433,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="K38" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2458,7 +2477,7 @@
       <c r="G39" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H39" s="16">
+      <c r="H39" s="14">
         <v>33.454000000000001</v>
       </c>
       <c r="I39" s="6">
@@ -2467,8 +2486,8 @@
       <c r="J39" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K39" s="16">
-        <v>0.92300000000000004</v>
+      <c r="K39" s="14">
+        <v>0.96199999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2493,7 +2512,7 @@
       <c r="G40" s="6">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H40" s="16">
+      <c r="H40" s="14">
         <v>29.285</v>
       </c>
       <c r="I40" s="6">
@@ -2502,8 +2521,8 @@
       <c r="J40" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K40" s="16">
-        <v>1.093</v>
+      <c r="K40" s="14">
+        <v>1.1459999999999999</v>
       </c>
     </row>
     <row r="41" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2528,7 +2547,7 @@
       <c r="G41" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H41" s="16">
+      <c r="H41" s="14">
         <v>28.305</v>
       </c>
       <c r="I41" s="6">
@@ -2537,8 +2556,8 @@
       <c r="J41" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K41" s="16">
-        <v>1.119</v>
+      <c r="K41" s="14">
+        <v>1.1830000000000001</v>
       </c>
     </row>
     <row r="42" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2563,7 +2582,7 @@
       <c r="G42" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H42" s="16">
+      <c r="H42" s="14">
         <v>4.9169999999999998</v>
       </c>
       <c r="I42" s="6">
@@ -2572,8 +2591,8 @@
       <c r="J42" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K42" s="16">
-        <v>0.82799999999999996</v>
+      <c r="K42" s="14">
+        <v>0.86599999999999999</v>
       </c>
     </row>
     <row r="43" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2598,7 +2617,7 @@
       <c r="G43" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="H43" s="16">
+      <c r="H43" s="14">
         <v>27.692</v>
       </c>
       <c r="I43" s="6">
@@ -2607,8 +2626,8 @@
       <c r="J43" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K43" s="16">
-        <v>1.0720000000000001</v>
+      <c r="K43" s="14">
+        <v>1.137</v>
       </c>
     </row>
     <row r="44" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2633,23 +2652,23 @@
       <c r="G44" s="6">
         <v>0.23200000000000001</v>
       </c>
-      <c r="H44" s="16">
+      <c r="H44" s="14">
         <v>101.444</v>
       </c>
       <c r="I44" s="6">
         <v>2E-3</v>
       </c>
       <c r="J44" s="6">
-        <v>0</v>
-      </c>
-      <c r="K44" s="16">
-        <v>0.63900000000000001</v>
-      </c>
-      <c r="L44" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="K44" s="14">
+        <v>0.76300000000000001</v>
+      </c>
+      <c r="L44" s="10">
         <f>((100-H44)/100)*-100</f>
         <v>1.4440000000000026</v>
       </c>
-      <c r="M44" s="12"/>
+      <c r="M44" s="11"/>
     </row>
     <row r="45" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
@@ -2673,7 +2692,7 @@
       <c r="G45" s="6">
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="H45" s="16">
+      <c r="H45" s="14">
         <v>11.154999999999999</v>
       </c>
       <c r="I45" s="6">
@@ -2682,13 +2701,13 @@
       <c r="J45" s="6">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="K45" s="16">
-        <v>6.6310000000000002</v>
-      </c>
-      <c r="L45" s="12"/>
-      <c r="M45" s="11">
+      <c r="K45" s="14">
+        <v>6.8959999999999999</v>
+      </c>
+      <c r="L45" s="11"/>
+      <c r="M45" s="10">
         <f>((6.25-K45)/6.25)*-100</f>
-        <v>6.0960000000000036</v>
+        <v>10.335999999999999</v>
       </c>
     </row>
     <row r="46" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2713,7 +2732,7 @@
       <c r="G46" s="6">
         <v>0.08</v>
       </c>
-      <c r="H46" s="16">
+      <c r="H46" s="14">
         <v>34.887999999999998</v>
       </c>
       <c r="I46" s="6">
@@ -2722,8 +2741,8 @@
       <c r="J46" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K46" s="16">
-        <v>0.99</v>
+      <c r="K46" s="14">
+        <v>1.046</v>
       </c>
     </row>
     <row r="47" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2748,7 +2767,7 @@
       <c r="G47" s="6">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H47" s="16">
+      <c r="H47" s="14">
         <v>38.988999999999997</v>
       </c>
       <c r="I47" s="6">
@@ -2757,8 +2776,8 @@
       <c r="J47" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K47" s="16">
-        <v>1.2410000000000001</v>
+      <c r="K47" s="14">
+        <v>1.3029999999999999</v>
       </c>
     </row>
     <row r="48" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2783,17 +2802,17 @@
       <c r="G48" s="6">
         <v>0.12</v>
       </c>
-      <c r="H48" s="16">
+      <c r="H48" s="14">
         <v>52.668999999999997</v>
       </c>
       <c r="I48" s="6">
-        <v>3.0000000000000001E-3</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="J48" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K48" s="16">
-        <v>2.149</v>
+      <c r="K48" s="14">
+        <v>2.2480000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2818,7 +2837,7 @@
       <c r="G49" s="6">
         <v>9.4E-2</v>
       </c>
-      <c r="H49" s="16">
+      <c r="H49" s="14">
         <v>40.963000000000001</v>
       </c>
       <c r="I49" s="6">
@@ -2827,8 +2846,8 @@
       <c r="J49" s="6">
         <v>2E-3</v>
       </c>
-      <c r="K49" s="16">
-        <v>2.117</v>
+      <c r="K49" s="14">
+        <v>2.2130000000000001</v>
       </c>
     </row>
     <row r="50" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2853,7 +2872,7 @@
       <c r="G50" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H50" s="16">
+      <c r="H50" s="14">
         <v>30.706</v>
       </c>
       <c r="I50" s="6">
@@ -2862,8 +2881,8 @@
       <c r="J50" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K50" s="16">
-        <v>1.4159999999999999</v>
+      <c r="K50" s="14">
+        <v>1.4890000000000001</v>
       </c>
     </row>
     <row r="51" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2895,7 +2914,7 @@
         <v>0</v>
       </c>
       <c r="K51" s="7">
-        <v>0.29699999999999999</v>
+        <v>0.29899999999999999</v>
       </c>
     </row>
     <row r="52" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2928,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="K52" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="53" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -2953,7 +2972,7 @@
       <c r="G53" s="6">
         <v>6.7000000000000004E-2</v>
       </c>
-      <c r="H53" s="16">
+      <c r="H53" s="14">
         <v>29.555</v>
       </c>
       <c r="I53" s="6">
@@ -2962,24 +2981,24 @@
       <c r="J53" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K53" s="16">
-        <v>1.238</v>
-      </c>
-      <c r="N53" s="13">
+      <c r="K53" s="14">
+        <v>1.3089999999999999</v>
+      </c>
+      <c r="N53" s="12">
         <f>((H53-H54)/((H53+H54)/2))*100</f>
         <v>-2.3506595556149978</v>
       </c>
-      <c r="O53" s="13">
+      <c r="O53" s="12">
         <f>((K53-K54)/((K53+K54)/2))*100</f>
-        <v>0.64829821717990332</v>
-      </c>
-      <c r="P53" s="14">
+        <v>0.2294455066921523</v>
+      </c>
+      <c r="P53" s="13">
         <f>AVERAGE(H53,H54)</f>
         <v>29.906500000000001</v>
       </c>
-      <c r="Q53" s="14">
+      <c r="Q53" s="13">
         <f>AVERAGE(K53,K54)</f>
-        <v>1.234</v>
+        <v>1.3075000000000001</v>
       </c>
     </row>
     <row r="54" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3004,7 +3023,7 @@
       <c r="G54" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H54" s="16">
+      <c r="H54" s="14">
         <v>30.257999999999999</v>
       </c>
       <c r="I54" s="6">
@@ -3013,8 +3032,8 @@
       <c r="J54" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K54" s="16">
-        <v>1.23</v>
+      <c r="K54" s="14">
+        <v>1.306</v>
       </c>
     </row>
     <row r="55" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3039,7 +3058,7 @@
       <c r="G55" s="6">
         <v>8.7999999999999995E-2</v>
       </c>
-      <c r="H55" s="16">
+      <c r="H55" s="14">
         <v>38.442999999999998</v>
       </c>
       <c r="I55" s="6">
@@ -3048,8 +3067,8 @@
       <c r="J55" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K55" s="16">
-        <v>1.61</v>
+      <c r="K55" s="14">
+        <v>1.696</v>
       </c>
     </row>
     <row r="56" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3074,7 +3093,7 @@
       <c r="G56" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H56" s="16">
+      <c r="H56" s="14">
         <v>35.959000000000003</v>
       </c>
       <c r="I56" s="6">
@@ -3083,8 +3102,8 @@
       <c r="J56" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K56" s="16">
-        <v>1.0369999999999999</v>
+      <c r="K56" s="14">
+        <v>1.117</v>
       </c>
     </row>
     <row r="57" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3109,7 +3128,7 @@
       <c r="G57" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H57" s="16">
+      <c r="H57" s="14">
         <v>36.438000000000002</v>
       </c>
       <c r="I57" s="6">
@@ -3118,8 +3137,8 @@
       <c r="J57" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K57" s="16">
-        <v>1.1299999999999999</v>
+      <c r="K57" s="14">
+        <v>1.208</v>
       </c>
     </row>
     <row r="58" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3144,7 +3163,7 @@
       <c r="G58" s="6">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="H58" s="16">
+      <c r="H58" s="14">
         <v>26.757000000000001</v>
       </c>
       <c r="I58" s="6">
@@ -3153,8 +3172,8 @@
       <c r="J58" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K58" s="16">
-        <v>1.157</v>
+      <c r="K58" s="14">
+        <v>1.2450000000000001</v>
       </c>
     </row>
     <row r="59" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3179,7 +3198,7 @@
       <c r="G59" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H59" s="16">
+      <c r="H59" s="14">
         <v>4.7380000000000004</v>
       </c>
       <c r="I59" s="6">
@@ -3188,8 +3207,8 @@
       <c r="J59" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K59" s="16">
-        <v>0.74199999999999999</v>
+      <c r="K59" s="14">
+        <v>0.81699999999999995</v>
       </c>
     </row>
     <row r="60" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3214,7 +3233,7 @@
       <c r="G60" s="6">
         <v>6.5000000000000002E-2</v>
       </c>
-      <c r="H60" s="16">
+      <c r="H60" s="14">
         <v>28.256</v>
       </c>
       <c r="I60" s="6">
@@ -3223,8 +3242,8 @@
       <c r="J60" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K60" s="16">
-        <v>1.363</v>
+      <c r="K60" s="14">
+        <v>1.48</v>
       </c>
     </row>
     <row r="61" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3249,7 +3268,7 @@
       <c r="G61" s="6">
         <v>6.6000000000000003E-2</v>
       </c>
-      <c r="H61" s="16">
+      <c r="H61" s="14">
         <v>29.059000000000001</v>
       </c>
       <c r="I61" s="6">
@@ -3258,8 +3277,8 @@
       <c r="J61" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K61" s="16">
-        <v>1.28</v>
+      <c r="K61" s="14">
+        <v>1.38</v>
       </c>
     </row>
     <row r="62" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3284,7 +3303,7 @@
       <c r="G62" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="H62" s="16">
+      <c r="H62" s="14">
         <v>34.186</v>
       </c>
       <c r="I62" s="6">
@@ -3293,8 +3312,8 @@
       <c r="J62" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K62" s="16">
-        <v>1.0840000000000001</v>
+      <c r="K62" s="14">
+        <v>1.179</v>
       </c>
     </row>
     <row r="63" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3327,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="K63" s="7">
-        <v>0.219</v>
+        <v>0.28599999999999998</v>
       </c>
     </row>
     <row r="64" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3360,7 +3379,7 @@
         <v>0</v>
       </c>
       <c r="K64" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="65" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3395,13 +3414,13 @@
         <v>0</v>
       </c>
       <c r="K65" s="7">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="L65" s="11">
+        <v>0.64400000000000002</v>
+      </c>
+      <c r="L65" s="10">
         <f>((100-H65)/100)*-100</f>
         <v>0.67100000000000648</v>
       </c>
-      <c r="M65" s="12"/>
+      <c r="M65" s="11"/>
     </row>
     <row r="66" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="3">
@@ -3435,12 +3454,12 @@
         <v>7.0000000000000001E-3</v>
       </c>
       <c r="K66" s="7">
-        <v>6.7679999999999998</v>
-      </c>
-      <c r="L66" s="12"/>
-      <c r="M66" s="11">
+        <v>7.0789999999999997</v>
+      </c>
+      <c r="L66" s="11"/>
+      <c r="M66" s="10">
         <f>((6.25-K66)/6.25)*-100</f>
-        <v>8.2879999999999967</v>
+        <v>13.263999999999996</v>
       </c>
     </row>
     <row r="67" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3465,7 +3484,7 @@
       <c r="G67" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="H67" s="16">
+      <c r="H67" s="14">
         <v>33.637</v>
       </c>
       <c r="I67" s="6">
@@ -3474,8 +3493,8 @@
       <c r="J67" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K67" s="18">
-        <v>0.88600000000000001</v>
+      <c r="K67" s="16">
+        <v>0.99</v>
       </c>
     </row>
     <row r="68" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3500,7 +3519,7 @@
       <c r="G68" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H68" s="16">
+      <c r="H68" s="14">
         <v>35.466999999999999</v>
       </c>
       <c r="I68" s="6">
@@ -3509,24 +3528,24 @@
       <c r="J68" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K68" s="18">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="N68" s="13">
+      <c r="K68" s="16">
+        <v>1.238</v>
+      </c>
+      <c r="N68" s="12">
         <f>((H68-H69)/((H68+H69)/2))*100</f>
         <v>-8.4549912631760149E-2</v>
       </c>
-      <c r="O68" s="13">
+      <c r="O68" s="12">
         <f>((K68-K69)/((K68+K69)/2))*100</f>
-        <v>8.9325591782055555E-2</v>
-      </c>
-      <c r="P68" s="14">
+        <v>-0.32258064516129065</v>
+      </c>
+      <c r="P68" s="13">
         <f>AVERAGE(H68,H69)</f>
         <v>35.481999999999999</v>
       </c>
-      <c r="Q68" s="14">
+      <c r="Q68" s="13">
         <f>AVERAGE(K68,K69)</f>
-        <v>1.1194999999999999</v>
+        <v>1.24</v>
       </c>
     </row>
     <row r="69" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3551,7 +3570,7 @@
       <c r="G69" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H69" s="16">
+      <c r="H69" s="14">
         <v>35.497</v>
       </c>
       <c r="I69" s="6">
@@ -3560,8 +3579,8 @@
       <c r="J69" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K69" s="18">
-        <v>1.119</v>
+      <c r="K69" s="16">
+        <v>1.242</v>
       </c>
     </row>
     <row r="70" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3586,7 +3605,7 @@
       <c r="G70" s="6">
         <v>0.06</v>
       </c>
-      <c r="H70" s="16">
+      <c r="H70" s="14">
         <v>26.129000000000001</v>
       </c>
       <c r="I70" s="6">
@@ -3595,8 +3614,8 @@
       <c r="J70" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K70" s="18">
-        <v>1.1559999999999999</v>
+      <c r="K70" s="16">
+        <v>1.284</v>
       </c>
     </row>
     <row r="71" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3621,7 +3640,7 @@
       <c r="G71" s="6">
         <v>6.3E-2</v>
       </c>
-      <c r="H71" s="16">
+      <c r="H71" s="14">
         <v>27.477</v>
       </c>
       <c r="I71" s="6">
@@ -3630,8 +3649,8 @@
       <c r="J71" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K71" s="18">
-        <v>1.256</v>
+      <c r="K71" s="16">
+        <v>1.4</v>
       </c>
     </row>
     <row r="72" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3656,7 +3675,7 @@
       <c r="G72" s="6">
         <v>5.0999999999999997E-2</v>
       </c>
-      <c r="H72" s="16">
+      <c r="H72" s="14">
         <v>22.341999999999999</v>
       </c>
       <c r="I72" s="6">
@@ -3665,8 +3684,8 @@
       <c r="J72" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K72" s="18">
-        <v>1.0640000000000001</v>
+      <c r="K72" s="16">
+        <v>1.194</v>
       </c>
     </row>
     <row r="73" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3691,7 +3710,7 @@
       <c r="G73" s="6">
         <v>8.3000000000000004E-2</v>
       </c>
-      <c r="H73" s="16">
+      <c r="H73" s="14">
         <v>36.219000000000001</v>
       </c>
       <c r="I73" s="6">
@@ -3700,8 +3719,8 @@
       <c r="J73" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K73" s="18">
-        <v>1.1479999999999999</v>
+      <c r="K73" s="16">
+        <v>1.2809999999999999</v>
       </c>
     </row>
     <row r="74" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3726,7 +3745,7 @@
       <c r="G74" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="H74" s="16">
+      <c r="H74" s="14">
         <v>34.234999999999999</v>
       </c>
       <c r="I74" s="6">
@@ -3735,8 +3754,8 @@
       <c r="J74" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K74" s="18">
-        <v>1.141</v>
+      <c r="K74" s="16">
+        <v>1.2709999999999999</v>
       </c>
     </row>
     <row r="75" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3761,7 +3780,7 @@
       <c r="G75" s="6">
         <v>7.6999999999999999E-2</v>
       </c>
-      <c r="H75" s="16">
+      <c r="H75" s="14">
         <v>33.713000000000001</v>
       </c>
       <c r="I75" s="6">
@@ -3770,8 +3789,8 @@
       <c r="J75" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K75" s="18">
-        <v>1.0980000000000001</v>
+      <c r="K75" s="16">
+        <v>1.244</v>
       </c>
     </row>
     <row r="76" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3796,7 +3815,7 @@
       <c r="G76" s="6">
         <v>1.0999999999999999E-2</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H76" s="14">
         <v>4.6779999999999999</v>
       </c>
       <c r="I76" s="6">
@@ -3805,8 +3824,8 @@
       <c r="J76" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K76" s="18">
-        <v>0.79</v>
+      <c r="K76" s="16">
+        <v>0.93</v>
       </c>
     </row>
     <row r="77" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3839,7 +3858,7 @@
         <v>0</v>
       </c>
       <c r="K77" s="7">
-        <v>0.26</v>
+        <v>0.376</v>
       </c>
     </row>
     <row r="78" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3872,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="K78" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="79" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3897,7 +3916,7 @@
       <c r="G79" s="6">
         <v>6.8000000000000005E-2</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H79" s="14">
         <v>29.603999999999999</v>
       </c>
       <c r="I79" s="6">
@@ -3906,8 +3925,8 @@
       <c r="J79" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K79" s="18">
-        <v>1.232</v>
+      <c r="K79" s="16">
+        <v>1.405</v>
       </c>
     </row>
     <row r="80" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3932,7 +3951,7 @@
       <c r="G80" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H80" s="16">
+      <c r="H80" s="14">
         <v>30.622</v>
       </c>
       <c r="I80" s="6">
@@ -3941,8 +3960,8 @@
       <c r="J80" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K80" s="18">
-        <v>1.2569999999999999</v>
+      <c r="K80" s="16">
+        <v>1.423</v>
       </c>
     </row>
     <row r="81" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -3967,7 +3986,7 @@
       <c r="G81" s="6">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="H81" s="16">
+      <c r="H81" s="14">
         <v>30.513000000000002</v>
       </c>
       <c r="I81" s="6">
@@ -3976,24 +3995,24 @@
       <c r="J81" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K81" s="18">
-        <v>1.1930000000000001</v>
-      </c>
-      <c r="N81" s="13">
+      <c r="K81" s="16">
+        <v>1.359</v>
+      </c>
+      <c r="N81" s="12">
         <f>((H81-H82)/((H81+H82)/2))*100</f>
         <v>0.35128613404685854</v>
       </c>
-      <c r="O81" s="13">
+      <c r="O81" s="12">
         <f>((K81-K82)/((K81+K82)/2))*100</f>
-        <v>2.8049298767530937</v>
-      </c>
-      <c r="P81" s="14">
+        <v>2.7601641178664615</v>
+      </c>
+      <c r="P81" s="13">
         <f>AVERAGE(H81,H82)</f>
         <v>30.459499999999998</v>
       </c>
-      <c r="Q81" s="14">
+      <c r="Q81" s="13">
         <f>AVERAGE(K81,K82)</f>
-        <v>1.1764999999999999</v>
+        <v>1.3405</v>
       </c>
     </row>
     <row r="82" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4018,7 +4037,7 @@
       <c r="G82" s="6">
         <v>6.9000000000000006E-2</v>
       </c>
-      <c r="H82" s="16">
+      <c r="H82" s="14">
         <v>30.405999999999999</v>
       </c>
       <c r="I82" s="6">
@@ -4027,8 +4046,8 @@
       <c r="J82" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K82" s="18">
-        <v>1.1599999999999999</v>
+      <c r="K82" s="16">
+        <v>1.3220000000000001</v>
       </c>
     </row>
     <row r="83" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4053,7 +4072,7 @@
       <c r="G83" s="6">
         <v>8.8999999999999996E-2</v>
       </c>
-      <c r="H83" s="16">
+      <c r="H83" s="14">
         <v>38.954999999999998</v>
       </c>
       <c r="I83" s="6">
@@ -4062,8 +4081,8 @@
       <c r="J83" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K83" s="18">
-        <v>1.0269999999999999</v>
+      <c r="K83" s="16">
+        <v>1.17</v>
       </c>
     </row>
     <row r="84" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4088,23 +4107,23 @@
       <c r="G84" s="6">
         <v>0.24099999999999999</v>
       </c>
-      <c r="H84" s="16">
+      <c r="H84" s="14">
         <v>105.52500000000001</v>
       </c>
       <c r="I84" s="6">
         <v>2E-3</v>
       </c>
       <c r="J84" s="6">
-        <v>0</v>
-      </c>
-      <c r="K84" s="18">
-        <v>0.70299999999999996</v>
-      </c>
-      <c r="L84" s="11">
+        <v>1E-3</v>
+      </c>
+      <c r="K84" s="16">
+        <v>0.83599999999999997</v>
+      </c>
+      <c r="L84" s="10">
         <f>((100-H84)/100)*-100</f>
         <v>5.5250000000000057</v>
       </c>
-      <c r="M84" s="12"/>
+      <c r="M84" s="11"/>
     </row>
     <row r="85" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="3">
@@ -4128,7 +4147,7 @@
       <c r="G85" s="6">
         <v>1.4E-2</v>
       </c>
-      <c r="H85" s="16">
+      <c r="H85" s="14">
         <v>6.0110000000000001</v>
       </c>
       <c r="I85" s="6">
@@ -4137,13 +4156,13 @@
       <c r="J85" s="6">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="K85" s="18">
-        <v>8.1059999999999999</v>
-      </c>
-      <c r="L85" s="12"/>
-      <c r="M85" s="17">
+      <c r="K85" s="16">
+        <v>8.5030000000000001</v>
+      </c>
+      <c r="L85" s="11"/>
+      <c r="M85" s="15">
         <f>((6.25-K85)/6.25)*-100</f>
-        <v>29.696000000000002</v>
+        <v>36.048000000000002</v>
       </c>
     </row>
     <row r="86" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4168,7 +4187,7 @@
       <c r="G86" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H86" s="16">
+      <c r="H86" s="14">
         <v>34.731000000000002</v>
       </c>
       <c r="I86" s="6">
@@ -4177,8 +4196,8 @@
       <c r="J86" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K86" s="18">
-        <v>1.1379999999999999</v>
+      <c r="K86" s="16">
+        <v>1.2889999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4203,7 +4222,7 @@
       <c r="G87" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H87" s="16">
+      <c r="H87" s="14">
         <v>34.682000000000002</v>
       </c>
       <c r="I87" s="6">
@@ -4212,8 +4231,8 @@
       <c r="J87" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K87" s="18">
-        <v>1.1499999999999999</v>
+      <c r="K87" s="16">
+        <v>1.29</v>
       </c>
     </row>
     <row r="88" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4238,7 +4257,7 @@
       <c r="G88" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H88" s="16">
+      <c r="H88" s="14">
         <v>32.216999999999999</v>
       </c>
       <c r="I88" s="6">
@@ -4247,8 +4266,8 @@
       <c r="J88" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K88" s="18">
-        <v>1.3129999999999999</v>
+      <c r="K88" s="16">
+        <v>1.4530000000000001</v>
       </c>
     </row>
     <row r="89" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4273,7 +4292,7 @@
       <c r="G89" s="6">
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="H89" s="16">
+      <c r="H89" s="14">
         <v>32.615000000000002</v>
       </c>
       <c r="I89" s="6">
@@ -4282,8 +4301,8 @@
       <c r="J89" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K89" s="18">
-        <v>1.2709999999999999</v>
+      <c r="K89" s="16">
+        <v>1.409</v>
       </c>
     </row>
     <row r="90" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4308,7 +4327,7 @@
       <c r="G90" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="H90" s="16">
+      <c r="H90" s="14">
         <v>33.942</v>
       </c>
       <c r="I90" s="6">
@@ -4317,8 +4336,8 @@
       <c r="J90" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K90" s="18">
-        <v>1.284</v>
+      <c r="K90" s="16">
+        <v>1.425</v>
       </c>
     </row>
     <row r="91" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4351,7 +4370,7 @@
         <v>0</v>
       </c>
       <c r="K91" s="7">
-        <v>0.218</v>
+        <v>0.30099999999999999</v>
       </c>
     </row>
     <row r="92" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4384,7 +4403,7 @@
         <v>0</v>
       </c>
       <c r="K92" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="93" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4409,7 +4428,7 @@
       <c r="G93" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H93" s="16">
+      <c r="H93" s="14">
         <v>33.156999999999996</v>
       </c>
       <c r="I93" s="6">
@@ -4418,8 +4437,8 @@
       <c r="J93" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K93" s="18">
-        <v>0.89</v>
+      <c r="K93" s="16">
+        <v>0.98199999999999998</v>
       </c>
     </row>
     <row r="94" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4429,12 +4448,14 @@
       <c r="B94" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="C94" s="5"/>
+      <c r="C94" s="5" t="s">
+        <v>46</v>
+      </c>
       <c r="D94" s="5" t="s">
         <v>189</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F94" s="6">
         <v>0.245</v>
@@ -4449,16 +4470,16 @@
         <v>2E-3</v>
       </c>
       <c r="J94" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K94" s="7">
-        <v>0.70399999999999996</v>
-      </c>
-      <c r="L94" s="11">
+        <v>0.79</v>
+      </c>
+      <c r="L94" s="10">
         <f>((100-H94)/100)*-100</f>
         <v>5.2939999999999969</v>
       </c>
-      <c r="M94" s="12"/>
+      <c r="M94" s="11"/>
     </row>
     <row r="95" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="3">
@@ -4467,12 +4488,14 @@
       <c r="B95" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C95" s="5"/>
+      <c r="C95" s="5" t="s">
+        <v>49</v>
+      </c>
       <c r="D95" s="5" t="s">
         <v>190</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="F95" s="6">
         <v>1.7999999999999999E-2</v>
@@ -4490,12 +4513,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K95" s="7">
-        <v>6.5439999999999996</v>
-      </c>
-      <c r="L95" s="12"/>
-      <c r="M95" s="11">
+        <v>6.8369999999999997</v>
+      </c>
+      <c r="L95" s="11"/>
+      <c r="M95" s="10">
         <f>((6.25-K95)/6.25)*-100</f>
-        <v>4.7039999999999935</v>
+        <v>9.3919999999999959</v>
       </c>
     </row>
     <row r="96" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4520,7 +4543,7 @@
       <c r="G96" s="6">
         <v>0.111</v>
       </c>
-      <c r="H96" s="16">
+      <c r="H96" s="14">
         <v>48.493000000000002</v>
       </c>
       <c r="I96" s="6">
@@ -4529,8 +4552,8 @@
       <c r="J96" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K96" s="16">
-        <v>0.83699999999999997</v>
+      <c r="K96" s="14">
+        <v>0.91900000000000004</v>
       </c>
     </row>
     <row r="97" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4555,7 +4578,7 @@
       <c r="G97" s="6">
         <v>0.01</v>
       </c>
-      <c r="H97" s="16">
+      <c r="H97" s="14">
         <v>4.37</v>
       </c>
       <c r="I97" s="6">
@@ -4564,8 +4587,8 @@
       <c r="J97" s="6">
         <v>0</v>
       </c>
-      <c r="K97" s="16">
-        <v>0.52400000000000002</v>
+      <c r="K97" s="14">
+        <v>0.626</v>
       </c>
     </row>
     <row r="98" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4590,7 +4613,7 @@
       <c r="G98" s="6">
         <v>0.08</v>
       </c>
-      <c r="H98" s="16">
+      <c r="H98" s="14">
         <v>35.033999999999999</v>
       </c>
       <c r="I98" s="6">
@@ -4599,24 +4622,24 @@
       <c r="J98" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K98" s="16">
-        <v>0.96099999999999997</v>
-      </c>
-      <c r="N98" s="13">
+      <c r="K98" s="14">
+        <v>1.0329999999999999</v>
+      </c>
+      <c r="N98" s="12">
         <f>((H98-H99)/((H98+H99)/2))*100</f>
         <v>-2.1153112953104545</v>
       </c>
-      <c r="O98" s="13">
+      <c r="O98" s="12">
         <f>((K98-K99)/((K98+K99)/2))*100</f>
-        <v>0.83594566353187116</v>
-      </c>
-      <c r="P98" s="14">
+        <v>0.58252427184466082</v>
+      </c>
+      <c r="P98" s="13">
         <f>AVERAGE(H98,H99)</f>
         <v>35.408500000000004</v>
       </c>
-      <c r="Q98" s="14">
+      <c r="Q98" s="13">
         <f>AVERAGE(K98,K99)</f>
-        <v>0.95699999999999996</v>
+        <v>1.0299999999999998</v>
       </c>
     </row>
     <row r="99" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4641,7 +4664,7 @@
       <c r="G99" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H99" s="16">
+      <c r="H99" s="14">
         <v>35.783000000000001</v>
       </c>
       <c r="I99" s="6">
@@ -4650,8 +4673,8 @@
       <c r="J99" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K99" s="16">
-        <v>0.95299999999999996</v>
+      <c r="K99" s="14">
+        <v>1.0269999999999999</v>
       </c>
     </row>
     <row r="100" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4676,7 +4699,7 @@
       <c r="G100" s="6">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H100" s="16">
+      <c r="H100" s="14">
         <v>42.351999999999997</v>
       </c>
       <c r="I100" s="6">
@@ -4685,8 +4708,8 @@
       <c r="J100" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K100" s="16">
-        <v>1.0329999999999999</v>
+      <c r="K100" s="14">
+        <v>1.133</v>
       </c>
     </row>
     <row r="101" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4711,7 +4734,7 @@
       <c r="G101" s="6">
         <v>9.9000000000000005E-2</v>
       </c>
-      <c r="H101" s="16">
+      <c r="H101" s="14">
         <v>43.435000000000002</v>
       </c>
       <c r="I101" s="6">
@@ -4721,7 +4744,7 @@
         <v>1E-3</v>
       </c>
       <c r="K101" s="16">
-        <v>0.92700000000000005</v>
+        <v>1.431</v>
       </c>
     </row>
     <row r="102" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4746,7 +4769,7 @@
       <c r="G102" s="6">
         <v>9.7000000000000003E-2</v>
       </c>
-      <c r="H102" s="16">
+      <c r="H102" s="14">
         <v>42.671999999999997</v>
       </c>
       <c r="I102" s="6">
@@ -4756,7 +4779,7 @@
         <v>1E-3</v>
       </c>
       <c r="K102" s="16">
-        <v>1.504</v>
+        <v>1.5980000000000001</v>
       </c>
     </row>
     <row r="103" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4789,7 +4812,7 @@
         <v>0</v>
       </c>
       <c r="K103" s="7">
-        <v>0.33500000000000002</v>
+        <v>0.29299999999999998</v>
       </c>
     </row>
     <row r="104" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4822,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="K104" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="105" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4857,13 +4880,13 @@
         <v>0</v>
       </c>
       <c r="K105" s="7">
-        <v>0.65500000000000003</v>
-      </c>
-      <c r="L105" s="11">
+        <v>0.70399999999999996</v>
+      </c>
+      <c r="L105" s="10">
         <f>((100-H105)/100)*-100</f>
         <v>6.4740000000000038</v>
       </c>
-      <c r="M105" s="12"/>
+      <c r="M105" s="11"/>
     </row>
     <row r="106" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="3">
@@ -4897,12 +4920,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K106" s="7">
-        <v>6.5279999999999996</v>
-      </c>
-      <c r="L106" s="12"/>
-      <c r="M106" s="11">
+        <v>6.7720000000000002</v>
+      </c>
+      <c r="L106" s="11"/>
+      <c r="M106" s="10">
         <f>((6.25-K106)/6.25)*-100</f>
-        <v>4.4479999999999933</v>
+        <v>8.3520000000000039</v>
       </c>
     </row>
     <row r="107" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4927,7 +4950,7 @@
       <c r="G107" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H107" s="16">
+      <c r="H107" s="14">
         <v>33.164000000000001</v>
       </c>
       <c r="I107" s="6">
@@ -4936,8 +4959,8 @@
       <c r="J107" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K107" s="16">
-        <v>0.97299999999999998</v>
+      <c r="K107" s="14">
+        <v>1.0209999999999999</v>
       </c>
     </row>
     <row r="108" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4962,7 +4985,7 @@
       <c r="G108" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="H108" s="16">
+      <c r="H108" s="14">
         <v>34.037999999999997</v>
       </c>
       <c r="I108" s="6">
@@ -4971,8 +4994,8 @@
       <c r="J108" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K108" s="16">
-        <v>0.95699999999999996</v>
+      <c r="K108" s="14">
+        <v>1.002</v>
       </c>
     </row>
     <row r="109" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4997,7 +5020,7 @@
       <c r="G109" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H109" s="16">
+      <c r="H109" s="14">
         <v>35.380000000000003</v>
       </c>
       <c r="I109" s="6">
@@ -5006,8 +5029,8 @@
       <c r="J109" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K109" s="16">
-        <v>0.99399999999999999</v>
+      <c r="K109" s="14">
+        <v>1.042</v>
       </c>
     </row>
     <row r="110" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5032,7 +5055,7 @@
       <c r="G110" s="6">
         <v>8.2000000000000003E-2</v>
       </c>
-      <c r="H110" s="16">
+      <c r="H110" s="14">
         <v>36.073</v>
       </c>
       <c r="I110" s="6">
@@ -5041,8 +5064,8 @@
       <c r="J110" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K110" s="16">
-        <v>0.998</v>
+      <c r="K110" s="14">
+        <v>1.0489999999999999</v>
       </c>
     </row>
     <row r="111" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5067,7 +5090,7 @@
       <c r="G111" s="6">
         <v>8.1000000000000003E-2</v>
       </c>
-      <c r="H111" s="16">
+      <c r="H111" s="14">
         <v>35.317</v>
       </c>
       <c r="I111" s="6">
@@ -5076,8 +5099,8 @@
       <c r="J111" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K111" s="16">
-        <v>1.006</v>
+      <c r="K111" s="14">
+        <v>1.054</v>
       </c>
     </row>
     <row r="112" spans="1:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5102,7 +5125,7 @@
       <c r="G112" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H112" s="16">
+      <c r="H112" s="14">
         <v>33.328000000000003</v>
       </c>
       <c r="I112" s="6">
@@ -5111,8 +5134,8 @@
       <c r="J112" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K112" s="16">
-        <v>1.133</v>
+      <c r="K112" s="14">
+        <v>1.1970000000000001</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5137,7 +5160,7 @@
       <c r="G113" s="6">
         <v>7.5999999999999998E-2</v>
       </c>
-      <c r="H113" s="16">
+      <c r="H113" s="14">
         <v>33.149000000000001</v>
       </c>
       <c r="I113" s="6">
@@ -5146,8 +5169,8 @@
       <c r="J113" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K113" s="16">
-        <v>1.1819999999999999</v>
+      <c r="K113" s="14">
+        <v>1.25</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5172,7 +5195,7 @@
       <c r="G114" s="6">
         <v>7.9000000000000001E-2</v>
       </c>
-      <c r="H114" s="16">
+      <c r="H114" s="14">
         <v>34.552</v>
       </c>
       <c r="I114" s="6">
@@ -5181,8 +5204,8 @@
       <c r="J114" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K114" s="16">
-        <v>1.167</v>
+      <c r="K114" s="14">
+        <v>1.2370000000000001</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5207,7 +5230,7 @@
       <c r="G115" s="6">
         <v>7.8E-2</v>
       </c>
-      <c r="H115" s="16">
+      <c r="H115" s="14">
         <v>34.354999999999997</v>
       </c>
       <c r="I115" s="6">
@@ -5216,8 +5239,8 @@
       <c r="J115" s="6">
         <v>1E-3</v>
       </c>
-      <c r="K115" s="16">
-        <v>1.012</v>
+      <c r="K115" s="14">
+        <v>1.0640000000000001</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5242,7 +5265,7 @@
       <c r="G116" s="6">
         <v>0.01</v>
       </c>
-      <c r="H116" s="16">
+      <c r="H116" s="14">
         <v>4.4539999999999997</v>
       </c>
       <c r="I116" s="6">
@@ -5251,8 +5274,8 @@
       <c r="J116" s="6">
         <v>0</v>
       </c>
-      <c r="K116" s="16">
-        <v>0.625</v>
+      <c r="K116" s="14">
+        <v>0.66500000000000004</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5285,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="K117" s="7">
-        <v>0.21</v>
+        <v>0.23200000000000001</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5318,7 +5341,7 @@
         <v>0</v>
       </c>
       <c r="K118" s="7">
-        <v>0.22500000000000001</v>
+        <v>0.23799999999999999</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -5350,16 +5373,16 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="J119" s="6">
-        <v>0</v>
+        <v>1E-3</v>
       </c>
       <c r="K119" s="7">
-        <v>0.72399999999999998</v>
-      </c>
-      <c r="L119" s="11">
+        <v>0.78100000000000003</v>
+      </c>
+      <c r="L119" s="10">
         <f>((100-H119)/100)*-100</f>
         <v>7.3700000000000045</v>
       </c>
-      <c r="M119" s="12"/>
+      <c r="M119" s="11"/>
     </row>
     <row r="120" spans="1:13" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="3">
@@ -5393,12 +5416,12 @@
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K120" s="7">
-        <v>6.6879999999999997</v>
-      </c>
-      <c r="L120" s="12"/>
-      <c r="M120" s="11">
+        <v>6.9429999999999996</v>
+      </c>
+      <c r="L120" s="11"/>
+      <c r="M120" s="10">
         <f>((6.25-K120)/6.25)*-100</f>
-        <v>7.0079999999999965</v>
+        <v>11.087999999999994</v>
       </c>
     </row>
   </sheetData>
